--- a/xlsx/馬拉維_intext.xlsx
+++ b/xlsx/馬拉維_intext.xlsx
@@ -29,7 +29,7 @@
     <t>馬拉維國旗</t>
   </si>
   <si>
-    <t>政策_政策_美國_馬拉維</t>
+    <t>体育运动_体育运动_南非_馬拉維</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8B%89%E7%B6%AD%E5%9C%8B%E5%BE%BD</t>
